--- a/Dataset/Folds/Fold_5/Excel/60.xlsx
+++ b/Dataset/Folds/Fold_5/Excel/60.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3047" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3407" uniqueCount="486">
   <si>
     <t>Doi</t>
   </si>
@@ -1514,6 +1514,109 @@
   </si>
   <si>
     <t>[Carol H.%Yan%c1yan@health.ucsd.edu%0,                           Farhoud%Faraji%NULL%0,                           Farhoud%Faraji%NULL%0,                           Divya P.%Prajapati%NULL%0,                           Divya P.%Prajapati%NULL%0,                           Christine E.%Boone%NULL%2,                           Christine E.%Boone%NULL%0,                           Adam S.%DeConde%NULL%0,                           Adam S.%DeConde%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Carol H.%Yan%c1yan@health.ucsd.edu%0,                            Farhoud%Faraji%NULL%0,                            Farhoud%Faraji%NULL%0,                            Divya P.%Prajapati%NULL%0,                            Benjamin T.%Ostrander%NULL%0,                            Adam S.%DeConde%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Á.%Beltrán‐Corbellini%beltran_corbellini@hotmail.com%0,                            J. L.%Chico‐García%NULL%0,                            J. L.%Chico‐García%NULL%0,                            J.%Martínez‐Poles%NULL%0,                            F.%Rodríguez‐Jorge%NULL%0,                            E.%Natera‐Villalba%NULL%0,                            J.%Gómez‐Corral%NULL%0,                            J.%Gómez‐Corral%NULL%0,                            A.%Gómez‐López%NULL%0,                            E.%Monreal%NULL%0,                            P.%Parra‐Díaz%NULL%0,                            J. L.%Cortés‐Cuevas%NULL%0,                            J. L.%Cortés‐Cuevas%NULL%0,                            J. C.%Galán%NULL%0,                            C.%Fragola‐Arnau%NULL%0,                            J.%Porta‐Etessam%NULL%0,                            J.%Masjuan%NULL%0,                            A.%Alonso‐Cánovas%NULL%0,                            A.%Alonso‐Cánovas%NULL%0]</t>
+  </si>
+  <si>
+    <t>[François%Bénézit%NULL%0,                            Paul%Le Turnier%NULL%0,                            Charles%Declerck%NULL%0,                            Cécile%Paillé%NULL%0,                            Matthieu%Revest%NULL%0,                            Vincent%Dubée%NULL%0,                            Pierre%Tattevin%pierre.tattevin@chu-rennes.fr%0,                            Cédric%Arvieux%NULL%0,                            Marion%Baldeyrou%NULL%0,                            Jean-Marc%Chapplain%NULL%0,                            Pauline%Comacle%NULL%0,                            Solène%Patrat-Delon%NULL%0,                            Anne%Maillard%NULL%0,                            Mélanie%Poinot%NULL%0,                            Charlotte%Pronier%NULL%0,                            Faouzi%Souala%NULL%0,                            Vincent%Thibault%NULL%0,                            Pierre%Abgueguen%NULL%0,                            Hélène%Cormier%NULL%0,                            Valérie%Delbos%NULL%0,                            Marine%de la Chapelle%NULL%0,                            Alexandra%Ducancelle%NULL%0,                            Rafael%Mahieu%NULL%0,                            Valérie%Rabier%NULL%0,                            Sami%Rehaiem%NULL%0,                            Yves%Vandamme%NULL%0,                            Charlotte%Biron%NULL%0,                            Jeanne%Brochon%NULL%0,                            David%Boutoille%NULL%0,                            Marie%Chauveau%NULL%0,                            Colin%Deschanvres%NULL%0,                            Benjamin J%Gaborit%NULL%0,                            Joël%Jenvrin%NULL%0,                            Raphaël%Lecomte%NULL%0,                            Maeva%Lefebvre%NULL%0,                            François%Raffi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Andrea%Giacomelli%andrea.giacomelli@unimi.it%0,                            Laura%Pezzati%NULL%0,                            Laura%Pezzati%NULL%0,                            Federico%Conti%NULL%0,                            Dario%Bernacchia%NULL%0,                            Matteo%Siano%NULL%0,                            Letizia%Oreni%NULL%0,                            Stefano%Rusconi%NULL%0,                            Cristina%Gervasoni%NULL%0,                            Anna Lisa%Ridolfo%NULL%0,                            Giuliano%Rizzardini%NULL%0,                            Spinello%Antinori%NULL%0,                            Massimo%Galli%NULL%0,                            Massimo%Galli%NULL%0]</t>
+  </si>
+  <si>
+    <t>[T.%Klopfenstein%NULL%0,                            N.J.%Kadiane-Oussou%NULL%0,                            L.%Toko%NULL%0,                            P.-Y.%Royer%NULL%0,                            Q.%Lepiller%NULL%0,                            V.%Gendrin%NULL%0,                            S.%Zayet%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jerome R.%Lechien%Jerome.Lechien@umons.ac.be%0,                            Carlos M.%Chiesa-Estomba%NULL%0,                            Daniele R.%De Siati%NULL%0,                            Mihaela%Horoi%NULL%0,                            Serge D.%Le Bon%NULL%0,                            Alexandra%Rodriguez%NULL%0,                            Didier%Dequanter%NULL%0,                            Serge%Blecic%NULL%0,                            Fahd%El Afia%NULL%0,                            Lea%Distinguin%NULL%0,                            Younes%Chekkoury-Idrissi%NULL%0,                            Stéphane%Hans%NULL%0,                            Irene Lopez%Delgado%NULL%0,                            Christian%Calvo-Henriquez%NULL%0,                            Philippe%Lavigne%NULL%0,                            Chiara%Falanga%NULL%0,                            Maria Rosaria%Barillari%NULL%0,                            Giovanni%Cammaroto%NULL%0,                            Mohamad%Khalife%NULL%0,                            Pierre%Leich%NULL%0,                            Christel%Souchay%NULL%0,                            Camelia%Rossi%NULL%0,                            Fabrice%Journe%NULL%0,                            Julien%Hsieh%NULL%0,                            Myriam%Edjlali%NULL%0,                            Robert%Carlier%NULL%0,                            Laurence%Ris%NULL%0,                            Andrea%Lovato%NULL%0,                            Cosimo%De Filippis%NULL%0,                            Frederique%Coppee%NULL%0,                            Nicolas%Fakhry%NULL%0,                            Tareck%Ayad%NULL%0,                            Sven%Saussez%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Shima T.%Moein%NULL%1,                            Seyed MohammadReza%Hashemian%NULL%1,                            Babak%Mansourafshar%NULL%1,                            Ali%Khorram‐Tousi%NULL%1,                            Payam%Tabarsi%NULL%1,                            Richard L.%Doty%doty@pennmedicine.upenn.edu%1]</t>
+  </si>
+  <si>
+    <t>[Alma%Tostmann%NULL%1,                            John%Bradley%NULL%2,                            John%Bradley%NULL%0,                            Teun%Bousema%NULL%2,                            Teun%Bousema%NULL%0,                            Wing-Kee%Yiek%NULL%2,                            Wing-Kee%Yiek%NULL%0,                            Minke%Holwerda%NULL%1,                            Chantal%Bleeker-Rovers%NULL%1,                            Jaap%ten Oever%NULL%1,                            Corianne%Meijer%NULL%2,                            Corianne%Meijer%NULL%0,                            Janette%Rahamat-Langendoen%NULL%1,                            Joost%Hopman%NULL%2,                            Joost%Hopman%NULL%0,                            Nannet%van der Geest-Blankert%NULL%1,                            Heiman%Wertheim%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Luigi Angelo%Vaira%luigi.vaira@gmail.com%0,                            Giovanna%Deiana%NULL%0,                            Giovanna%Deiana%NULL%0,                            Alessandro Giuseppe%Fois%NULL%1,                            Pietro%Pirina%NULL%0,                            Giordano%Madeddu%NULL%0,                            Andrea%De Vito%NULL%0,                            Sergio%Babudieri%NULL%0,                            Marzia%Petrocelli%NULL%0,                            Antonello%Serra%NULL%0,                            Francesco%Bussu%NULL%0,                            Enrica%Ligas%NULL%1,                            Giovanni%Salzano%NULL%0,                            Giacomo%De Riu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Liang En%Wee%ian.wee@mohh.com.sg%1,                            Yvonne Fu Zi%Chan%NULL%2,                            Yvonne Fu Zi%Chan%NULL%0,                            Neville Wei Yang%Teo%NULL%1,                            Benjamin Pei Zhi%Cherng%NULL%1,                            Siew Yee%Thien%NULL%1,                            Hei Man%Wong%NULL%1,                            Limin%Wijaya%NULL%1,                            Song Tar%Toh%NULL%1,                            Thuan Tong%Tan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carol H.%Yan%c1yan@health.ucsd.edu%0,                            Farhoud%Faraji%NULL%0,                            Farhoud%Faraji%NULL%0,                            Divya P.%Prajapati%NULL%0,                            Divya P.%Prajapati%NULL%0,                            Christine E.%Boone%NULL%2,                            Christine E.%Boone%NULL%0,                            Adam S.%DeConde%NULL%0,                            Adam S.%DeConde%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Carol H.%Yan%c1yan@health.ucsd.edu%0,                             Farhoud%Faraji%NULL%0,                             Farhoud%Faraji%NULL%0,                             Divya P.%Prajapati%NULL%0,                             Benjamin T.%Ostrander%NULL%0,                             Adam S.%DeConde%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Á.%Beltrán‐Corbellini%beltran_corbellini@hotmail.com%0,                             J. L.%Chico‐García%NULL%0,                             J. L.%Chico‐García%NULL%0,                             J.%Martínez‐Poles%NULL%0,                             F.%Rodríguez‐Jorge%NULL%0,                             E.%Natera‐Villalba%NULL%0,                             J.%Gómez‐Corral%NULL%0,                             J.%Gómez‐Corral%NULL%0,                             A.%Gómez‐López%NULL%0,                             E.%Monreal%NULL%0,                             P.%Parra‐Díaz%NULL%0,                             J. L.%Cortés‐Cuevas%NULL%0,                             J. L.%Cortés‐Cuevas%NULL%0,                             J. C.%Galán%NULL%0,                             C.%Fragola‐Arnau%NULL%0,                             J.%Porta‐Etessam%NULL%0,                             J.%Masjuan%NULL%0,                             A.%Alonso‐Cánovas%NULL%0,                             A.%Alonso‐Cánovas%NULL%0]</t>
+  </si>
+  <si>
+    <t>[François%Bénézit%NULL%0,                             Paul%Le Turnier%NULL%0,                             Charles%Declerck%NULL%0,                             Cécile%Paillé%NULL%0,                             Matthieu%Revest%NULL%0,                             Vincent%Dubée%NULL%0,                             Pierre%Tattevin%pierre.tattevin@chu-rennes.fr%0,                             Cédric%Arvieux%NULL%0,                             Marion%Baldeyrou%NULL%0,                             Jean-Marc%Chapplain%NULL%0,                             Pauline%Comacle%NULL%0,                             Solène%Patrat-Delon%NULL%0,                             Anne%Maillard%NULL%0,                             Mélanie%Poinot%NULL%0,                             Charlotte%Pronier%NULL%0,                             Faouzi%Souala%NULL%0,                             Vincent%Thibault%NULL%0,                             Pierre%Abgueguen%NULL%0,                             Hélène%Cormier%NULL%0,                             Valérie%Delbos%NULL%0,                             Marine%de la Chapelle%NULL%0,                             Alexandra%Ducancelle%NULL%0,                             Rafael%Mahieu%NULL%0,                             Valérie%Rabier%NULL%0,                             Sami%Rehaiem%NULL%0,                             Yves%Vandamme%NULL%0,                             Charlotte%Biron%NULL%0,                             Jeanne%Brochon%NULL%0,                             David%Boutoille%NULL%0,                             Marie%Chauveau%NULL%0,                             Colin%Deschanvres%NULL%0,                             Benjamin J%Gaborit%NULL%0,                             Joël%Jenvrin%NULL%0,                             Raphaël%Lecomte%NULL%0,                             Maeva%Lefebvre%NULL%0,                             François%Raffi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Andrea%Giacomelli%andrea.giacomelli@unimi.it%0,                             Laura%Pezzati%NULL%0,                             Laura%Pezzati%NULL%0,                             Federico%Conti%NULL%0,                             Dario%Bernacchia%NULL%0,                             Matteo%Siano%NULL%0,                             Letizia%Oreni%NULL%0,                             Stefano%Rusconi%NULL%0,                             Cristina%Gervasoni%NULL%0,                             Anna Lisa%Ridolfo%NULL%0,                             Giuliano%Rizzardini%NULL%0,                             Spinello%Antinori%NULL%0,                             Massimo%Galli%NULL%0,                             Massimo%Galli%NULL%0]</t>
+  </si>
+  <si>
+    <t>[T.%Klopfenstein%NULL%0,                             N.J.%Kadiane-Oussou%NULL%0,                             L.%Toko%NULL%0,                             P.-Y.%Royer%NULL%0,                             Q.%Lepiller%NULL%0,                             V.%Gendrin%NULL%0,                             S.%Zayet%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jerome R.%Lechien%Jerome.Lechien@umons.ac.be%0,                             Carlos M.%Chiesa-Estomba%NULL%0,                             Daniele R.%De Siati%NULL%0,                             Mihaela%Horoi%NULL%0,                             Serge D.%Le Bon%NULL%0,                             Alexandra%Rodriguez%NULL%0,                             Didier%Dequanter%NULL%0,                             Serge%Blecic%NULL%0,                             Fahd%El Afia%NULL%0,                             Lea%Distinguin%NULL%0,                             Younes%Chekkoury-Idrissi%NULL%0,                             Stéphane%Hans%NULL%0,                             Irene Lopez%Delgado%NULL%0,                             Christian%Calvo-Henriquez%NULL%0,                             Philippe%Lavigne%NULL%0,                             Chiara%Falanga%NULL%0,                             Maria Rosaria%Barillari%NULL%0,                             Giovanni%Cammaroto%NULL%0,                             Mohamad%Khalife%NULL%0,                             Pierre%Leich%NULL%0,                             Christel%Souchay%NULL%0,                             Camelia%Rossi%NULL%0,                             Fabrice%Journe%NULL%0,                             Julien%Hsieh%NULL%0,                             Myriam%Edjlali%NULL%0,                             Robert%Carlier%NULL%0,                             Laurence%Ris%NULL%0,                             Andrea%Lovato%NULL%0,                             Cosimo%De Filippis%NULL%0,                             Frederique%Coppee%NULL%0,                             Nicolas%Fakhry%NULL%0,                             Tareck%Ayad%NULL%0,                             Sven%Saussez%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Shima T.%Moein%NULL%1,                             Seyed MohammadReza%Hashemian%NULL%1,                             Babak%Mansourafshar%NULL%1,                             Ali%Khorram‐Tousi%NULL%1,                             Payam%Tabarsi%NULL%1,                             Richard L.%Doty%doty@pennmedicine.upenn.edu%1]</t>
+  </si>
+  <si>
+    <t>[Alma%Tostmann%NULL%1,                             John%Bradley%NULL%2,                             John%Bradley%NULL%0,                             Teun%Bousema%NULL%2,                             Teun%Bousema%NULL%0,                             Wing-Kee%Yiek%NULL%2,                             Wing-Kee%Yiek%NULL%0,                             Minke%Holwerda%NULL%1,                             Chantal%Bleeker-Rovers%NULL%1,                             Jaap%ten Oever%NULL%1,                             Corianne%Meijer%NULL%2,                             Corianne%Meijer%NULL%0,                             Janette%Rahamat-Langendoen%NULL%1,                             Joost%Hopman%NULL%2,                             Joost%Hopman%NULL%0,                             Nannet%van der Geest-Blankert%NULL%1,                             Heiman%Wertheim%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Luigi Angelo%Vaira%luigi.vaira@gmail.com%0,                             Giovanna%Deiana%NULL%0,                             Giovanna%Deiana%NULL%0,                             Alessandro Giuseppe%Fois%NULL%1,                             Pietro%Pirina%NULL%0,                             Giordano%Madeddu%NULL%0,                             Andrea%De Vito%NULL%0,                             Sergio%Babudieri%NULL%0,                             Marzia%Petrocelli%NULL%0,                             Antonello%Serra%NULL%0,                             Francesco%Bussu%NULL%0,                             Enrica%Ligas%NULL%1,                             Giovanni%Salzano%NULL%0,                             Giacomo%De Riu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Liang En%Wee%ian.wee@mohh.com.sg%1,                             Yvonne Fu Zi%Chan%NULL%2,                             Yvonne Fu Zi%Chan%NULL%0,                             Neville Wei Yang%Teo%NULL%1,                             Benjamin Pei Zhi%Cherng%NULL%1,                             Siew Yee%Thien%NULL%1,                             Hei Man%Wong%NULL%1,                             Limin%Wijaya%NULL%1,                             Song Tar%Toh%NULL%1,                             Thuan Tong%Tan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carol H.%Yan%c1yan@health.ucsd.edu%0,                             Farhoud%Faraji%NULL%0,                             Farhoud%Faraji%NULL%0,                             Divya P.%Prajapati%NULL%0,                             Divya P.%Prajapati%NULL%0,                             Christine E.%Boone%NULL%2,                             Christine E.%Boone%NULL%0,                             Adam S.%DeConde%NULL%0,                             Adam S.%DeConde%NULL%0]</t>
+  </si>
+  <si>
+    <t>John Wiley and Sons Inc.</t>
+  </si>
+  <si>
+    <t>Elsevier Ltd.</t>
+  </si>
+  <si>
+    <t>Oxford University Press</t>
+  </si>
+  <si>
+    <t>Elsevier Masson SAS.</t>
+  </si>
+  <si>
+    <t>Springer Berlin Heidelberg</t>
+  </si>
+  <si>
+    <t>[Shima T.%Moein%NULL%0, Seyed MohammadReza%Hashemian%NULL%1, Babak%Mansourafshar%NULL%1, Ali%Khorram‐Tousi%NULL%1, Payam%Tabarsi%NULL%0, Richard L.%Doty%doty@pennmedicine.upenn.edu%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Healthcare workers (n = 803) with mild symptoms were tested for severe acute respiratory syndrome coronavirus 2 (SARS-CoV-2) (n = 90 positive) and asked to complete a symptom questionnaire.
+ Anosmia, muscle ache, ocular pain, general malaise, headache, extreme tiredness and fever were associated with positivity.
+ A predictive model based on these symptoms showed moderate discriminative value (sensitivity: 91.2%; specificity: 55.6%).
+ While our models would not justify presumptive SARS-CoV-2 diagnosis without molecular confirmation, it can contribute to targeted screening strategies.
+</t>
+  </si>
+  <si>
+    <t>[Alma%Tostmann%NULL%0, John%Bradley%NULL%2, John%Bradley%NULL%0, Teun%Bousema%NULL%2, Teun%Bousema%NULL%0, Wing-Kee%Yiek%NULL%2, Wing-Kee%Yiek%NULL%0, Minke%Holwerda%NULL%1, Chantal%Bleeker-Rovers%NULL%1, Jaap%ten Oever%NULL%1, Corianne%Meijer%NULL%2, Corianne%Meijer%NULL%0, Janette%Rahamat-Langendoen%NULL%1, Joost%Hopman%NULL%2, Joost%Hopman%NULL%0, Nannet%van der Geest-Blankert%NULL%1, Heiman%Wertheim%NULL%1]</t>
+  </si>
+  <si>
+    <t>European Centre for Disease Prevention and Control (ECDC)</t>
+  </si>
+  <si>
+    <t>John Wiley &amp;amp; Sons, Inc.</t>
+  </si>
+  <si>
+    <t>[Liang En%Wee%ian.wee@mohh.com.sg%0, Yvonne Fu Zi%Chan%NULL%2, Yvonne Fu Zi%Chan%NULL%0, Neville Wei Yang%Teo%NULL%1, Benjamin Pei Zhi%Cherng%NULL%1, Siew Yee%Thien%NULL%1, Hei Man%Wong%NULL%1, Limin%Wijaya%NULL%1, Song Tar%Toh%NULL%1, Thuan Tong%Tan%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1841,7 +1944,7 @@
         <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>440</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
         <v>31</v>
@@ -1853,10 +1956,10 @@
         <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>328</v>
+        <v>40</v>
       </c>
       <c r="J2" t="s">
-        <v>40</v>
+        <v>475</v>
       </c>
     </row>
     <row r="3">
@@ -1873,7 +1976,7 @@
         <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>441</v>
+        <v>36</v>
       </c>
       <c r="F3" t="s">
         <v>37</v>
@@ -1885,10 +1988,10 @@
         <v>38</v>
       </c>
       <c r="I3" t="s">
-        <v>328</v>
+        <v>40</v>
       </c>
       <c r="J3" t="s">
-        <v>40</v>
+        <v>475</v>
       </c>
     </row>
     <row r="4">
@@ -1905,7 +2008,7 @@
         <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>442</v>
+        <v>41</v>
       </c>
       <c r="F4" t="s">
         <v>42</v>
@@ -1917,10 +2020,10 @@
         <v>43</v>
       </c>
       <c r="I4" t="s">
-        <v>331</v>
+        <v>40</v>
       </c>
       <c r="J4" t="s">
-        <v>40</v>
+        <v>476</v>
       </c>
     </row>
     <row r="5">
@@ -1937,7 +2040,7 @@
         <v>40</v>
       </c>
       <c r="E5" t="s">
-        <v>443</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
         <v>46</v>
@@ -1949,10 +2052,10 @@
         <v>43</v>
       </c>
       <c r="I5" t="s">
-        <v>328</v>
+        <v>40</v>
       </c>
       <c r="J5" t="s">
-        <v>40</v>
+        <v>477</v>
       </c>
     </row>
     <row r="6">
@@ -1969,7 +2072,7 @@
         <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>444</v>
+        <v>49</v>
       </c>
       <c r="F6" t="s">
         <v>50</v>
@@ -1981,10 +2084,10 @@
         <v>51</v>
       </c>
       <c r="I6" t="s">
-        <v>331</v>
+        <v>40</v>
       </c>
       <c r="J6" t="s">
-        <v>40</v>
+        <v>478</v>
       </c>
     </row>
     <row r="7">
@@ -1998,10 +2101,10 @@
         <v>52</v>
       </c>
       <c r="D7" t="s">
-        <v>234</v>
+        <v>53</v>
       </c>
       <c r="E7" t="s">
-        <v>445</v>
+        <v>54</v>
       </c>
       <c r="F7" t="s">
         <v>55</v>
@@ -2013,10 +2116,10 @@
         <v>56</v>
       </c>
       <c r="I7" t="s">
-        <v>335</v>
+        <v>40</v>
       </c>
       <c r="J7" t="s">
-        <v>40</v>
+        <v>479</v>
       </c>
     </row>
     <row r="8">
@@ -2027,28 +2130,28 @@
         <v>43983.0</v>
       </c>
       <c r="C8" t="s">
-        <v>175</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8" t="s">
-        <v>263</v>
+        <v>24</v>
       </c>
       <c r="F8" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="G8" t="s">
-        <v>177</v>
+        <v>26</v>
       </c>
       <c r="H8" t="s">
-        <v>366</v>
+        <v>43</v>
       </c>
       <c r="I8" t="s">
         <v>40</v>
       </c>
       <c r="J8" t="s">
-        <v>367</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9">
@@ -2059,25 +2162,25 @@
         <v>44013.0</v>
       </c>
       <c r="C9" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>221</v>
+        <v>21</v>
       </c>
       <c r="E9" t="s">
-        <v>446</v>
+        <v>24</v>
       </c>
       <c r="F9" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G9" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="H9" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="I9" t="s">
-        <v>337</v>
+        <v>40</v>
       </c>
       <c r="J9" t="s">
         <v>40</v>
@@ -2097,7 +2200,7 @@
         <v>63</v>
       </c>
       <c r="E10" t="s">
-        <v>447</v>
+        <v>480</v>
       </c>
       <c r="F10" t="s">
         <v>65</v>
@@ -2109,10 +2212,10 @@
         <v>51</v>
       </c>
       <c r="I10" t="s">
-        <v>328</v>
+        <v>40</v>
       </c>
       <c r="J10" t="s">
-        <v>40</v>
+        <v>475</v>
       </c>
     </row>
     <row r="11">
@@ -2123,25 +2226,25 @@
         <v>43977.0</v>
       </c>
       <c r="C11" t="s">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>93</v>
+        <v>21</v>
       </c>
       <c r="E11" t="s">
-        <v>448</v>
+        <v>24</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="G11" t="s">
-        <v>95</v>
+        <v>26</v>
       </c>
       <c r="H11" t="s">
         <v>43</v>
       </c>
       <c r="I11" t="s">
-        <v>337</v>
+        <v>40</v>
       </c>
       <c r="J11" t="s">
         <v>40</v>
@@ -2158,10 +2261,10 @@
         <v>66</v>
       </c>
       <c r="D12" t="s">
-        <v>67</v>
+        <v>481</v>
       </c>
       <c r="E12" t="s">
-        <v>449</v>
+        <v>482</v>
       </c>
       <c r="F12" t="s">
         <v>69</v>
@@ -2173,10 +2276,10 @@
         <v>33</v>
       </c>
       <c r="I12" t="s">
-        <v>328</v>
+        <v>40</v>
       </c>
       <c r="J12" t="s">
-        <v>40</v>
+        <v>483</v>
       </c>
     </row>
     <row r="13">
@@ -2193,7 +2296,7 @@
         <v>71</v>
       </c>
       <c r="E13" t="s">
-        <v>450</v>
+        <v>72</v>
       </c>
       <c r="F13" t="s">
         <v>73</v>
@@ -2205,10 +2308,10 @@
         <v>74</v>
       </c>
       <c r="I13" t="s">
-        <v>328</v>
+        <v>40</v>
       </c>
       <c r="J13" t="s">
-        <v>40</v>
+        <v>484</v>
       </c>
     </row>
     <row r="14">
@@ -2225,7 +2328,7 @@
         <v>40</v>
       </c>
       <c r="E14" t="s">
-        <v>451</v>
+        <v>485</v>
       </c>
       <c r="F14" t="s">
         <v>77</v>
@@ -2237,10 +2340,10 @@
         <v>78</v>
       </c>
       <c r="I14" t="s">
-        <v>335</v>
+        <v>40</v>
       </c>
       <c r="J14" t="s">
-        <v>40</v>
+        <v>479</v>
       </c>
     </row>
     <row r="15">
@@ -2257,7 +2360,7 @@
         <v>80</v>
       </c>
       <c r="E15" t="s">
-        <v>452</v>
+        <v>81</v>
       </c>
       <c r="F15" t="s">
         <v>82</v>
@@ -2269,10 +2372,10 @@
         <v>83</v>
       </c>
       <c r="I15" t="s">
-        <v>328</v>
+        <v>40</v>
       </c>
       <c r="J15" t="s">
-        <v>40</v>
+        <v>475</v>
       </c>
     </row>
   </sheetData>
